--- a/quiz_data.xlsx
+++ b/quiz_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\20241211_CUSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D471C62-A4BF-4C40-BC02-34E76909704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE3164-2739-4DC0-B6FC-80A26CF6BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8196" yWindow="120" windowWidth="10416" windowHeight="12240" xr2:uid="{6DCF0D6A-7CDC-4C54-8579-DADC4D8962C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DCF0D6A-7CDC-4C54-8579-DADC4D8962C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,76 +36,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>correctAnswer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+2=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙節棍中「快使用...」是什麼？</t>
+  </si>
+  <si>
+    <t>雙截棍,刀,劍,槍,棒</t>
+  </si>
+  <si>
+    <t>雙截棍</t>
+  </si>
+  <si>
+    <t>歌詞提到的「夜市」是在什麼城市？</t>
+  </si>
+  <si>
+    <t>台北,高雄,台中,台南,新竹</t>
+  </si>
+  <si>
+    <t>台北</t>
   </si>
   <si>
     <t>multiple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪些是程式語言？</t>
-  </si>
-  <si>
-    <t>Python,Java,Cat,Dog</t>
-  </si>
-  <si>
-    <t>Python,Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些是歌詞中提到的武器？</t>
+  </si>
+  <si>
+    <t>雙截棍,彈弓,匕首,長劍</t>
+  </si>
+  <si>
+    <t>雙截棍,匕首</t>
+  </si>
+  <si>
+    <t>哪些是歌詞提到的情景？</t>
+  </si>
+  <si>
+    <t>夜市,擂台,公園,跑馬場</t>
+  </si>
+  <si>
+    <t>夜市,擂台</t>
   </si>
   <si>
     <t>fill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+2=?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪些是生物?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石頭,水壺,狗,貓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗,貓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三個口猜一字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「___ 使用雙截棍，哼哼哈嘿！」</t>
+  </si>
+  <si>
+    <t>快</t>
   </si>
 </sst>
 </file>
@@ -501,12 +494,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -530,61 +523,61 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
